--- a/medicine/Premiers secours et secourisme/Ballon_autoremplisseur_à_valve_unidirectionnelle/Ballon_autoremplisseur_à_valve_unidirectionnelle.xlsx
+++ b/medicine/Premiers secours et secourisme/Ballon_autoremplisseur_à_valve_unidirectionnelle/Ballon_autoremplisseur_à_valve_unidirectionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ballon_autoremplisseur_%C3%A0_valve_unidirectionnelle</t>
+          <t>Ballon_autoremplisseur_à_valve_unidirectionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ballon autoremplisseur à valve unidirectionnelle (ou insufflateur manuel, également connu sous le sigle BAVU), est un instrument médical ou paramédical conçu pour suppléer à la respiration d'un patient en arrêt respiratoire. La conception du ballon d'une manière à ce qu'il tende à reprendre sa forme (à se regonfler) et le système de valves unidirectionnelles permettent de fournir une ventilation sans apport de gaz comprimé. Le BAVU est de préférence raccordé à une source d'oxygène médical. Un accumulateur qui se remplit pendant la vidange du ballon (insufflation) permet de fournir 100 % d'oxygène même avec une ventilation rapide.
 Le BAVU peut être relié à un masque (comme sur la photo), ou à une sonde d'intubation endo-trachéale.
